--- a/data/Income.xlsx
+++ b/data/Income.xlsx
@@ -37,7 +37,7 @@
     <t>91.7</t>
   </si>
   <si>
-    <t xml:space="preserve">upper </t>
+    <t>upper</t>
   </si>
   <si>
     <t>93.0</t>
